--- a/Data/新建 Microsoft Excel 工作表.xlsx
+++ b/Data/新建 Microsoft Excel 工作表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,247 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+  <si>
+    <t>*天门冬氨酸氨基转换酶</t>
+  </si>
+  <si>
+    <t>*丙氨酸氨基转换酶</t>
+  </si>
+  <si>
+    <t>*碱性磷酸酶</t>
+  </si>
+  <si>
+    <t>*r-谷氨酰基转换酶</t>
+  </si>
+  <si>
+    <t>*总蛋白</t>
+  </si>
+  <si>
+    <t>白蛋白</t>
+  </si>
+  <si>
+    <t>*球蛋白</t>
+  </si>
+  <si>
+    <t>白球比例</t>
+  </si>
+  <si>
+    <t>甘油三酯</t>
+  </si>
+  <si>
+    <t>总胆固醇</t>
+  </si>
+  <si>
+    <t>高密度脂蛋白胆固醇</t>
+  </si>
+  <si>
+    <t>低密度脂蛋白胆固醇</t>
+  </si>
+  <si>
+    <t>尿素</t>
+  </si>
+  <si>
+    <t>肌酐</t>
+  </si>
+  <si>
+    <t>尿酸</t>
+  </si>
+  <si>
+    <t>乙肝表面抗原</t>
+  </si>
+  <si>
+    <t>乙肝表面抗体</t>
+  </si>
+  <si>
+    <t>乙肝e抗原</t>
+  </si>
+  <si>
+    <t>乙肝e抗体</t>
+  </si>
+  <si>
+    <t>乙肝核心抗体</t>
+  </si>
+  <si>
+    <t>白细胞计数</t>
+  </si>
+  <si>
+    <t>红细胞计数</t>
+  </si>
+  <si>
+    <t>血红蛋白</t>
+  </si>
+  <si>
+    <t>红细胞压积</t>
+  </si>
+  <si>
+    <t>红细胞平均体积</t>
+  </si>
+  <si>
+    <t>红细胞平均血红蛋白量</t>
+  </si>
+  <si>
+    <t>红细胞平均血红蛋白浓度</t>
+  </si>
+  <si>
+    <t>红细胞体积分布宽度</t>
+  </si>
+  <si>
+    <t>血小板计数</t>
+  </si>
+  <si>
+    <t>血小板平均体积</t>
+  </si>
+  <si>
+    <t>血小板体积分布宽度</t>
+  </si>
+  <si>
+    <t>血小板比积</t>
+  </si>
+  <si>
+    <t>中性粒细胞%</t>
+  </si>
+  <si>
+    <t>淋巴细胞%</t>
+  </si>
+  <si>
+    <t>单核细胞%</t>
+  </si>
+  <si>
+    <t>嗜酸细胞%</t>
+  </si>
+  <si>
+    <t>嗜碱细胞%</t>
+  </si>
+  <si>
+    <t>PartI_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartI_2</t>
+  </si>
+  <si>
+    <t>PartI_3</t>
+  </si>
+  <si>
+    <t>PartI_4</t>
+  </si>
+  <si>
+    <t>PartI_5</t>
+  </si>
+  <si>
+    <t>PartI_6</t>
+  </si>
+  <si>
+    <t>PartI_7</t>
+  </si>
+  <si>
+    <t>PartI_8</t>
+  </si>
+  <si>
+    <t>PartII_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartII_2</t>
+  </si>
+  <si>
+    <t>PartII_3</t>
+  </si>
+  <si>
+    <t>PartII_4</t>
+  </si>
+  <si>
+    <t>PartIII_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartIII_2</t>
+  </si>
+  <si>
+    <t>PartIII_3</t>
+  </si>
+  <si>
+    <t>PartIV_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartIV_2</t>
+  </si>
+  <si>
+    <t>PartIV_3</t>
+  </si>
+  <si>
+    <t>PartIV_4</t>
+  </si>
+  <si>
+    <t>PartIV_5</t>
+  </si>
+  <si>
+    <t>PartV_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartV_2</t>
+  </si>
+  <si>
+    <t>PartV_3</t>
+  </si>
+  <si>
+    <t>PartV_4</t>
+  </si>
+  <si>
+    <t>PartV_5</t>
+  </si>
+  <si>
+    <t>PartV_6</t>
+  </si>
+  <si>
+    <t>PartV_7</t>
+  </si>
+  <si>
+    <t>PartV_8</t>
+  </si>
+  <si>
+    <t>PartV_9</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartV_10</t>
+  </si>
+  <si>
+    <t>PartV_11</t>
+  </si>
+  <si>
+    <t>PartV_12</t>
+  </si>
+  <si>
+    <t>PartV_13</t>
+  </si>
+  <si>
+    <t>PartVI_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartVI_2</t>
+  </si>
+  <si>
+    <t>PartVI_3</t>
+  </si>
+  <si>
+    <t>PartVI_4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +257,340 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -40,23 +598,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="41"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释 2" xfId="42"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +942,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -131,9 +975,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +1027,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,13 +1219,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:AN1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/新建 Microsoft Excel 工作表.xlsx
+++ b/Data/新建 Microsoft Excel 工作表.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
-  <si>
-    <t>*天门冬氨酸氨基转换酶</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>*丙氨酸氨基转换酶</t>
   </si>
@@ -156,9 +153,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>PartII_2</t>
-  </si>
-  <si>
     <t>PartII_3</t>
   </si>
   <si>
@@ -243,6 +237,14 @@
   </si>
   <si>
     <t>PartVI_4</t>
+  </si>
+  <si>
+    <t>*天门冬氨酸氨基转换酶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartII_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1220,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:AN1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1232,411 +1234,300 @@
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>44</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="Q1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
-      </c>
-      <c r="R1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
